--- a/www.eia.gov/forecasts/steo/xls/Fig26.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig26.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>U.S. Renewable Energy Supply (Quadrillion Btu)</t>
@@ -62,7 +62,7 @@
     <t>Solar</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note: Hydropower excludes pumped storage generation.  Liquid biofuels include ethanol and biodiesel.  Other biomass includes municipal waste from biogenic sources, landfill gas, and other non-wood waste.</t>
@@ -339,13 +339,13 @@
                   <c:v>2.3211773120000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4926835340000002</c:v>
+                  <c:v>2.4642988520000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4387181999999998</c:v>
+                  <c:v>2.5412607999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5399607999999998</c:v>
+                  <c:v>2.5555653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -430,13 +430,13 @@
                   <c:v>2.0433401779999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9530025090000001</c:v>
+                  <c:v>1.948657638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9499419</c:v>
+                  <c:v>1.9188426999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9557582</c:v>
+                  <c:v>1.9395551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -521,13 +521,13 @@
                   <c:v>1.3817756503</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4571482928999999</c:v>
+                  <c:v>1.4591884282000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4748262999999999</c:v>
+                  <c:v>1.4798427031000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5025858999999999</c:v>
+                  <c:v>1.4959712999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,13 +612,13 @@
                   <c:v>1.8120999203000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1219484481999999</c:v>
+                  <c:v>2.1202164157999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1203004000000001</c:v>
+                  <c:v>2.2718077000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3379110999999999</c:v>
+                  <c:v>2.4924255999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,13 +703,13 @@
                   <c:v>0.52234687499999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52700585799999999</c:v>
+                  <c:v>0.52601641399999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51598339999999998</c:v>
+                  <c:v>0.5241711</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5173432</c:v>
+                  <c:v>0.52840299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,13 +797,13 @@
                   <c:v>0.21294468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.228550947</c:v>
+                  <c:v>0.229383432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2301627</c:v>
+                  <c:v>0.23307079999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22686310000000001</c:v>
+                  <c:v>0.2336667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,13 +888,13 @@
                   <c:v>0.427414513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57691652999999998</c:v>
+                  <c:v>0.58211586699999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68859090000000001</c:v>
+                  <c:v>0.75142200000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82604789999999995</c:v>
+                  <c:v>0.88072510000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,8 +910,8 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="322469440"/>
-        <c:axId val="322470000"/>
+        <c:axId val="422816560"/>
+        <c:axId val="422816000"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1030,11 +1030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322470560"/>
-        <c:axId val="322471120"/>
+        <c:axId val="422815440"/>
+        <c:axId val="422814880"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="322469440"/>
+        <c:axId val="422816560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1051,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="322470000"/>
+        <c:crossAx val="422816000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="322470000"/>
+        <c:axId val="422816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -1087,12 +1087,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="322469440"/>
+        <c:crossAx val="422816560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322470560"/>
+        <c:axId val="422815440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,12 +1102,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="322471120"/>
+        <c:crossAx val="422814880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322471120"/>
+        <c:axId val="422814880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1124,7 +1124,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="322470560"/>
+        <c:crossAx val="422815440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1253,7 +1253,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1469,13 +1469,13 @@
             <v>2.3211773120000001</v>
           </cell>
           <cell r="K27">
-            <v>2.4926835340000002</v>
+            <v>2.4642988520000002</v>
           </cell>
           <cell r="L27">
-            <v>2.4387181999999998</v>
+            <v>2.5412607999999999</v>
           </cell>
           <cell r="M27">
-            <v>2.5399607999999998</v>
+            <v>2.5555653</v>
           </cell>
         </row>
         <row r="28">
@@ -1501,13 +1501,13 @@
             <v>2.0433401779999998</v>
           </cell>
           <cell r="K28">
-            <v>1.9530025090000001</v>
+            <v>1.948657638</v>
           </cell>
           <cell r="L28">
-            <v>1.9499419</v>
+            <v>1.9188426999999999</v>
           </cell>
           <cell r="M28">
-            <v>1.9557582</v>
+            <v>1.9395551</v>
           </cell>
         </row>
         <row r="29">
@@ -1533,13 +1533,13 @@
             <v>1.3817756503</v>
           </cell>
           <cell r="K29">
-            <v>1.4571482928999999</v>
+            <v>1.4591884282000001</v>
           </cell>
           <cell r="L29">
-            <v>1.4748262999999999</v>
+            <v>1.4798427031000001</v>
           </cell>
           <cell r="M29">
-            <v>1.5025858999999999</v>
+            <v>1.4959712999999999</v>
           </cell>
         </row>
         <row r="30">
@@ -1565,13 +1565,13 @@
             <v>1.8120999203000001</v>
           </cell>
           <cell r="K30">
-            <v>2.1219484481999999</v>
+            <v>2.1202164157999999</v>
           </cell>
           <cell r="L30">
-            <v>2.1203004000000001</v>
+            <v>2.2718077000000001</v>
           </cell>
           <cell r="M30">
-            <v>2.3379110999999999</v>
+            <v>2.4924255999999998</v>
           </cell>
         </row>
         <row r="31">
@@ -1597,13 +1597,13 @@
             <v>0.52234687499999999</v>
           </cell>
           <cell r="K31">
-            <v>0.52700585799999999</v>
+            <v>0.52601641399999999</v>
           </cell>
           <cell r="L31">
-            <v>0.51598339999999998</v>
+            <v>0.5241711</v>
           </cell>
           <cell r="M31">
-            <v>0.5173432</v>
+            <v>0.52840299999999996</v>
           </cell>
         </row>
         <row r="32">
@@ -1629,13 +1629,13 @@
             <v>0.21294468</v>
           </cell>
           <cell r="K32">
-            <v>0.228550947</v>
+            <v>0.229383432</v>
           </cell>
           <cell r="L32">
-            <v>0.2301627</v>
+            <v>0.23307079999999999</v>
           </cell>
           <cell r="M32">
-            <v>0.22686310000000001</v>
+            <v>0.2336667</v>
           </cell>
         </row>
         <row r="33">
@@ -1661,13 +1661,13 @@
             <v>0.427414513</v>
           </cell>
           <cell r="K33">
-            <v>0.57691652999999998</v>
+            <v>0.58211586699999995</v>
           </cell>
           <cell r="L33">
-            <v>0.68859090000000001</v>
+            <v>0.75142200000000003</v>
           </cell>
           <cell r="M33">
-            <v>0.82604789999999995</v>
+            <v>0.88072510000000004</v>
           </cell>
         </row>
         <row r="37">
@@ -2158,13 +2158,13 @@
         <v>2.3211773120000001</v>
       </c>
       <c r="K27" s="11">
-        <v>2.4926835340000002</v>
+        <v>2.4642988520000002</v>
       </c>
       <c r="L27" s="11">
-        <v>2.4387181999999998</v>
+        <v>2.5412607999999999</v>
       </c>
       <c r="M27" s="11">
-        <v>2.5399607999999998</v>
+        <v>2.5555653</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2193,13 +2193,13 @@
         <v>2.0433401779999998</v>
       </c>
       <c r="K28" s="11">
-        <v>1.9530025090000001</v>
+        <v>1.948657638</v>
       </c>
       <c r="L28" s="11">
-        <v>1.9499419</v>
+        <v>1.9188426999999999</v>
       </c>
       <c r="M28" s="11">
-        <v>1.9557582</v>
+        <v>1.9395551</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,13 +2228,13 @@
         <v>1.3817756503</v>
       </c>
       <c r="K29" s="11">
-        <v>1.4571482928999999</v>
+        <v>1.4591884282000001</v>
       </c>
       <c r="L29" s="11">
-        <v>1.4748262999999999</v>
+        <v>1.4798427031000001</v>
       </c>
       <c r="M29" s="11">
-        <v>1.5025858999999999</v>
+        <v>1.4959712999999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,13 +2263,13 @@
         <v>1.8120999203000001</v>
       </c>
       <c r="K30" s="11">
-        <v>2.1219484481999999</v>
+        <v>2.1202164157999999</v>
       </c>
       <c r="L30" s="11">
-        <v>2.1203004000000001</v>
+        <v>2.2718077000000001</v>
       </c>
       <c r="M30" s="11">
-        <v>2.3379110999999999</v>
+        <v>2.4924255999999998</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2298,13 +2298,13 @@
         <v>0.52234687499999999</v>
       </c>
       <c r="K31" s="11">
-        <v>0.52700585799999999</v>
+        <v>0.52601641399999999</v>
       </c>
       <c r="L31" s="11">
-        <v>0.51598339999999998</v>
+        <v>0.5241711</v>
       </c>
       <c r="M31" s="11">
-        <v>0.5173432</v>
+        <v>0.52840299999999996</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2333,13 +2333,13 @@
         <v>0.21294468</v>
       </c>
       <c r="K32" s="11">
-        <v>0.228550947</v>
+        <v>0.229383432</v>
       </c>
       <c r="L32" s="11">
-        <v>0.2301627</v>
+        <v>0.23307079999999999</v>
       </c>
       <c r="M32" s="11">
-        <v>0.22686310000000001</v>
+        <v>0.2336667</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2370,13 +2370,13 @@
         <v>0.427414513</v>
       </c>
       <c r="K33" s="14">
-        <v>0.57691652999999998</v>
+        <v>0.58211586699999995</v>
       </c>
       <c r="L33" s="14">
-        <v>0.68859090000000001</v>
+        <v>0.75142200000000003</v>
       </c>
       <c r="M33" s="14">
-        <v>0.82604789999999995</v>
+        <v>0.88072510000000004</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
